--- a/data/trans_orig/P1429-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1429-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>9541</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3895</v>
+        <v>4011</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17937</v>
+        <v>19051</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01374792232311224</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00561282503163671</v>
+        <v>0.005778872912493513</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0258447713750565</v>
+        <v>0.02745003761021158</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -765,19 +765,19 @@
         <v>24973</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16189</v>
+        <v>16688</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37220</v>
+        <v>37429</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0362796801350322</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02351808378490197</v>
+        <v>0.02424279773776133</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05407065230807049</v>
+        <v>0.05437425985399205</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -786,19 +786,19 @@
         <v>34514</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24199</v>
+        <v>25180</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46727</v>
+        <v>49428</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02496766484864542</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01750574869146215</v>
+        <v>0.01821509727328016</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03380204797012486</v>
+        <v>0.03575626303821218</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>684471</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>676075</v>
+        <v>674961</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>690117</v>
+        <v>690001</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9862520776768877</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9741552286249435</v>
+        <v>0.972549962389787</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9943871749683633</v>
+        <v>0.9942211270875063</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>671</v>
@@ -836,19 +836,19 @@
         <v>663378</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>651131</v>
+        <v>650922</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>672162</v>
+        <v>671663</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9637203198649678</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9459293476919299</v>
+        <v>0.945625740146008</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9764819162150983</v>
+        <v>0.9757572022622388</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1345</v>
@@ -857,19 +857,19 @@
         <v>1347849</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1335636</v>
+        <v>1332935</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1358164</v>
+        <v>1357183</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9750323351513546</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9661979520298751</v>
+        <v>0.9642437369617877</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.982494251308538</v>
+        <v>0.9817849027267198</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>12535</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7209</v>
+        <v>6311</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22196</v>
+        <v>20954</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01303246277851744</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00749561677608756</v>
+        <v>0.00656133422098068</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02307766354979497</v>
+        <v>0.02178651922549962</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -982,19 +982,19 @@
         <v>36615</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25946</v>
+        <v>26089</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50639</v>
+        <v>50140</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03781011159413105</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02679257214823069</v>
+        <v>0.02694074103090197</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05229213975191041</v>
+        <v>0.05177645602601923</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -1003,19 +1003,19 @@
         <v>49150</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36823</v>
+        <v>36506</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>66276</v>
+        <v>62870</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02546360428709787</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01907749156749318</v>
+        <v>0.01891317655112094</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03433624836395851</v>
+        <v>0.03257176655588588</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>949265</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>939604</v>
+        <v>940846</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>954591</v>
+        <v>955489</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9869675372214826</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9769223364502048</v>
+        <v>0.9782134807745003</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9925043832239124</v>
+        <v>0.9934386657790194</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>874</v>
@@ -1053,19 +1053,19 @@
         <v>931778</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>917754</v>
+        <v>918253</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>942447</v>
+        <v>942304</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9621898884058689</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9477078602480897</v>
+        <v>0.9482235439739808</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9732074278517695</v>
+        <v>0.9730592589690981</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1758</v>
@@ -1074,19 +1074,19 @@
         <v>1881043</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1863917</v>
+        <v>1867323</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1893370</v>
+        <v>1893687</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9745363957129022</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9656637516360412</v>
+        <v>0.9674282334441139</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9809225084325067</v>
+        <v>0.9810868234488788</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>2674</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7508</v>
+        <v>8856</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00394074165644085</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001089806469731948</v>
+        <v>0.00111590717024797</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01106563771455934</v>
+        <v>0.0130522379024082</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -1199,19 +1199,19 @@
         <v>39141</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28082</v>
+        <v>27948</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52549</v>
+        <v>52536</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05723654365834795</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04106524698108457</v>
+        <v>0.04086960601107433</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07684421049552149</v>
+        <v>0.076824260851089</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -1220,19 +1220,19 @@
         <v>41815</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30295</v>
+        <v>30552</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55529</v>
+        <v>56403</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03069294026274524</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02223724441976024</v>
+        <v>0.02242620713377439</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0407596858339024</v>
+        <v>0.04140100376854419</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>675835</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>671001</v>
+        <v>669653</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>677770</v>
+        <v>677752</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9960592583435591</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9889343622854398</v>
+        <v>0.9869477620975906</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.998910193530268</v>
+        <v>0.998884092829752</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>657</v>
@@ -1270,19 +1270,19 @@
         <v>644700</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>631292</v>
+        <v>631305</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>655759</v>
+        <v>655893</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.942763456341652</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9231557895044786</v>
+        <v>0.9231757391489109</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9589347530189155</v>
+        <v>0.9591303939889257</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1295</v>
@@ -1291,19 +1291,19 @@
         <v>1320535</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1306821</v>
+        <v>1305947</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1332055</v>
+        <v>1331798</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9693070597372547</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9592403141660973</v>
+        <v>0.9585989962314554</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9777627555802397</v>
+        <v>0.9775737928662255</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>9077</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4754</v>
+        <v>4830</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16197</v>
+        <v>16899</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009633085694016044</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005045198317716442</v>
+        <v>0.005126577947529858</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01719061637892822</v>
+        <v>0.01793571928673508</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -1416,19 +1416,19 @@
         <v>44562</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33192</v>
+        <v>32405</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58754</v>
+        <v>58634</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04290569781760766</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03195802735973435</v>
+        <v>0.03120029090370244</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05656936016702444</v>
+        <v>0.05645393459555366</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>53</v>
@@ -1437,19 +1437,19 @@
         <v>53639</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41686</v>
+        <v>41160</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>70395</v>
+        <v>68945</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02707893556711376</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02104469092354594</v>
+        <v>0.02077896641362259</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03553827053840558</v>
+        <v>0.03480627772683309</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>933145</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>926025</v>
+        <v>925323</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>937468</v>
+        <v>937392</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.990366914305984</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.982809383621072</v>
+        <v>0.9820642807132649</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9949548016822836</v>
+        <v>0.9948734220524701</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>954</v>
@@ -1487,19 +1487,19 @@
         <v>994050</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>979858</v>
+        <v>979978</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1005420</v>
+        <v>1006207</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9570943021823923</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9434306398329755</v>
+        <v>0.9435460654044463</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9680419726402655</v>
+        <v>0.9687997090962975</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1938</v>
@@ -1508,19 +1508,19 @@
         <v>1927195</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1910439</v>
+        <v>1911889</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1939148</v>
+        <v>1939674</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9729210644328863</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9644617294615943</v>
+        <v>0.9651937222731669</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.978955309076454</v>
+        <v>0.9792210335863774</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>33826</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23369</v>
+        <v>23840</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47067</v>
+        <v>45657</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01032374069643581</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007132202488256315</v>
+        <v>0.007276042163943992</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01436478432986588</v>
+        <v>0.01393444595280612</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>141</v>
@@ -1633,19 +1633,19 @@
         <v>145291</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>123413</v>
+        <v>122922</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>169572</v>
+        <v>168411</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04299579756607409</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03652129665724761</v>
+        <v>0.03637608336102161</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05018124486221819</v>
+        <v>0.04983772481903048</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>175</v>
@@ -1654,19 +1654,19 @@
         <v>179117</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>155424</v>
+        <v>153025</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>210080</v>
+        <v>205650</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02691172583257259</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02335187974376615</v>
+        <v>0.02299141027019526</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03156372192332656</v>
+        <v>0.03089810107108928</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3242717</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3229476</v>
+        <v>3230886</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3253174</v>
+        <v>3252703</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9896762593035642</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9856352156701335</v>
+        <v>0.986065554047194</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9928677975117436</v>
+        <v>0.9927239578360562</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3156</v>
@@ -1704,19 +1704,19 @@
         <v>3233906</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3209625</v>
+        <v>3210786</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3255784</v>
+        <v>3256275</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9570042024339259</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9498187551377812</v>
+        <v>0.9501622751809693</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9634787033427523</v>
+        <v>0.9636239166389783</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6336</v>
@@ -1725,19 +1725,19 @@
         <v>6476624</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6445661</v>
+        <v>6450091</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6500317</v>
+        <v>6502716</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9730882741674274</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9684362780766735</v>
+        <v>0.9691018989289107</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9766481202562338</v>
+        <v>0.9770085897298048</v>
       </c>
     </row>
     <row r="18">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7402</v>
+        <v>7257</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002953117683168042</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01052150629331642</v>
+        <v>0.01031617929139838</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -2090,19 +2090,19 @@
         <v>18613</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11263</v>
+        <v>11226</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29188</v>
+        <v>28786</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02670269128487103</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01615842024050808</v>
+        <v>0.01610563329757976</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0418741448534236</v>
+        <v>0.04129715405962849</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -2111,19 +2111,19 @@
         <v>20691</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12697</v>
+        <v>13363</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30889</v>
+        <v>32600</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.014773478935861</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009066155297809752</v>
+        <v>0.009541159094686242</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02205552013160204</v>
+        <v>0.02327676107944989</v>
       </c>
     </row>
     <row r="5">
@@ -2140,7 +2140,7 @@
         <v>701392</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>696067</v>
+        <v>696212</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>703469</v>
@@ -2149,7 +2149,7 @@
         <v>0.9970468823168319</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9894784937066835</v>
+        <v>0.9896838207086014</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2161,19 +2161,19 @@
         <v>678437</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>667862</v>
+        <v>668264</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>685787</v>
+        <v>685824</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.973297308715129</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9581258551465764</v>
+        <v>0.9587028459403718</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.983841579759492</v>
+        <v>0.9838943667024203</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1305</v>
@@ -2182,19 +2182,19 @@
         <v>1379828</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1369630</v>
+        <v>1367919</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1387822</v>
+        <v>1387156</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.985226521064139</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9779444798683979</v>
+        <v>0.9767232389205502</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9909338447021906</v>
+        <v>0.9904588409053138</v>
       </c>
     </row>
     <row r="6">
@@ -2299,19 +2299,19 @@
         <v>36952</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26000</v>
+        <v>25665</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50349</v>
+        <v>50222</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03591166523394863</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02526788984893229</v>
+        <v>0.02494243703412427</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04893092954676881</v>
+        <v>0.04880789964970834</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -2320,19 +2320,19 @@
         <v>36952</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25851</v>
+        <v>26094</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>50972</v>
+        <v>51348</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01805255602328961</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01262907001857422</v>
+        <v>0.01274812112176361</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0249016615878846</v>
+        <v>0.02508539845966095</v>
       </c>
     </row>
     <row r="8">
@@ -2362,19 +2362,19 @@
         <v>992021</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>978624</v>
+        <v>978751</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1002973</v>
+        <v>1003308</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9640883347660514</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9510690704532311</v>
+        <v>0.9511921003502916</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9747321101510676</v>
+        <v>0.9750575629658756</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1840</v>
@@ -2383,19 +2383,19 @@
         <v>2009969</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1995949</v>
+        <v>1995573</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2021070</v>
+        <v>2020827</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9819474439767104</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9750983384121154</v>
+        <v>0.9749146015403386</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9873709299814257</v>
+        <v>0.9872518788782362</v>
       </c>
     </row>
     <row r="9">
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11139</v>
+        <v>11862</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002979173063181103</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01472266081999255</v>
+        <v>0.01567728744288893</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -2508,19 +2508,19 @@
         <v>26397</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16594</v>
+        <v>17113</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37576</v>
+        <v>38589</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03401450634428681</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02138235876239334</v>
+        <v>0.02205085825966293</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04841800968189724</v>
+        <v>0.04972387131580536</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -2529,19 +2529,19 @@
         <v>28652</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19994</v>
+        <v>18511</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43460</v>
+        <v>43189</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01869371081671417</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01304527731064268</v>
+        <v>0.01207736834453804</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02835570249795231</v>
+        <v>0.0281786323093332</v>
       </c>
     </row>
     <row r="11">
@@ -2558,7 +2558,7 @@
         <v>754366</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>745481</v>
+        <v>744758</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>756620</v>
@@ -2567,7 +2567,7 @@
         <v>0.9970208269368189</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9852773391800075</v>
+        <v>0.984322712557112</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2579,19 +2579,19 @@
         <v>749668</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>738489</v>
+        <v>737476</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>759471</v>
+        <v>758952</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9659854936557132</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9515819903181028</v>
+        <v>0.9502761286841946</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9786176412376066</v>
+        <v>0.9779491417403371</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1367</v>
@@ -2600,19 +2600,19 @@
         <v>1504034</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1489226</v>
+        <v>1489497</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1512692</v>
+        <v>1514175</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9813062891832859</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9716442975020476</v>
+        <v>0.9718213676906668</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9869547226893569</v>
+        <v>0.987922631655462</v>
       </c>
     </row>
     <row r="12">
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7187</v>
+        <v>6113</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002145628630766149</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.007583441378790294</v>
+        <v>0.006449862434568022</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -2725,19 +2725,19 @@
         <v>60402</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46837</v>
+        <v>45048</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>78273</v>
+        <v>76586</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05742190788756589</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04452623785781939</v>
+        <v>0.04282491973567026</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07441062717670337</v>
+        <v>0.07280764307462292</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -2746,19 +2746,19 @@
         <v>62436</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>47127</v>
+        <v>48026</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>79745</v>
+        <v>80569</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03122344405126008</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02356753963523</v>
+        <v>0.02401741403709779</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03987986913401363</v>
+        <v>0.04029157140333395</v>
       </c>
     </row>
     <row r="14">
@@ -2775,7 +2775,7 @@
         <v>945706</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>940552</v>
+        <v>941626</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>947739</v>
@@ -2784,7 +2784,7 @@
         <v>0.9978543713692338</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9924165586212097</v>
+        <v>0.993550137565432</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2796,19 +2796,19 @@
         <v>991499</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>973628</v>
+        <v>975315</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1005064</v>
+        <v>1006853</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9425780921124342</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9255893728232965</v>
+        <v>0.927192356925377</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9554737621421806</v>
+        <v>0.9571750802643296</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1855</v>
@@ -2817,19 +2817,19 @@
         <v>1937204</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1919895</v>
+        <v>1919071</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1952513</v>
+        <v>1951614</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9687765559487399</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9601201308659864</v>
+        <v>0.9597084285966661</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.97643246036477</v>
+        <v>0.9759825859629022</v>
       </c>
     </row>
     <row r="15">
@@ -2921,19 +2921,19 @@
         <v>6365</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2121</v>
+        <v>2071</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15978</v>
+        <v>15085</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001857980992341845</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0006192568244538974</v>
+        <v>0.0006046514020580281</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.004663975325631471</v>
+        <v>0.004403482314042685</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>131</v>
@@ -2942,19 +2942,19 @@
         <v>142365</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>121090</v>
+        <v>121671</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>167221</v>
+        <v>170056</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04005776929663026</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03407161122188817</v>
+        <v>0.03423517920016689</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04705158672073516</v>
+        <v>0.0478492344442449</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>136</v>
@@ -2963,19 +2963,19 @@
         <v>148730</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>125193</v>
+        <v>124705</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>175174</v>
+        <v>173763</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02130872822982653</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01793659854298748</v>
+        <v>0.01786669660851987</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0250974546837845</v>
+        <v>0.02489529401307068</v>
       </c>
     </row>
     <row r="17">
@@ -2992,19 +2992,19 @@
         <v>3419411</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3409798</v>
+        <v>3410691</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3423655</v>
+        <v>3423705</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9981420190076582</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9953360246743689</v>
+        <v>0.9955965176859574</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.999380743175546</v>
+        <v>0.999395348597942</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3164</v>
@@ -3013,19 +3013,19 @@
         <v>3411625</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3386769</v>
+        <v>3383934</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3432900</v>
+        <v>3432319</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9599422307033697</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9529484132792652</v>
+        <v>0.9521507655557551</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9659283887781119</v>
+        <v>0.9657648207998332</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6367</v>
@@ -3034,19 +3034,19 @@
         <v>6831036</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6804592</v>
+        <v>6806003</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6854573</v>
+        <v>6855061</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9786912717701735</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9749025453162155</v>
+        <v>0.9751047059869293</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9820634014570125</v>
+        <v>0.9821333033914801</v>
       </c>
     </row>
     <row r="18">
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6876</v>
+        <v>6828</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002817520288484543</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01018978574772443</v>
+        <v>0.01011783822716532</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -3399,19 +3399,19 @@
         <v>26792</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17465</v>
+        <v>17585</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38283</v>
+        <v>39171</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03981990367298196</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02595726076140872</v>
+        <v>0.02613543623998346</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05689799673652611</v>
+        <v>0.05821773671375736</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -3420,19 +3420,19 @@
         <v>28694</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18422</v>
+        <v>19412</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40292</v>
+        <v>41539</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02129179017674309</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01367002829095286</v>
+        <v>0.01440442510536463</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02989817876813585</v>
+        <v>0.03082334955048774</v>
       </c>
     </row>
     <row r="5">
@@ -3449,7 +3449,7 @@
         <v>672899</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>667924</v>
+        <v>667972</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>674800</v>
@@ -3458,7 +3458,7 @@
         <v>0.9971824797115154</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9898102142522756</v>
+        <v>0.9898821617728347</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -3470,19 +3470,19 @@
         <v>646047</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>634556</v>
+        <v>633668</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>655374</v>
+        <v>655254</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9601800963270181</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9431020032634738</v>
+        <v>0.9417822632862421</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9740427392385913</v>
+        <v>0.9738645637600165</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1292</v>
@@ -3491,19 +3491,19 @@
         <v>1318945</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1307347</v>
+        <v>1306100</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1329217</v>
+        <v>1328227</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9787082098232569</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9701018212318642</v>
+        <v>0.9691766504495122</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.986329971709047</v>
+        <v>0.9855955748946353</v>
       </c>
     </row>
     <row r="6">
@@ -3595,19 +3595,19 @@
         <v>3845</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9067</v>
+        <v>9448</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003760595978274109</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0008980040176337792</v>
+        <v>0.0008921419334332867</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008868082703357375</v>
+        <v>0.009240330881329419</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -3616,19 +3616,19 @@
         <v>35581</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24819</v>
+        <v>24202</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51695</v>
+        <v>50100</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03411738423551211</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02379783815533434</v>
+        <v>0.02320611017121974</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04956791054803787</v>
+        <v>0.04803850369702154</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -3637,19 +3637,19 @@
         <v>39426</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26785</v>
+        <v>27969</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54302</v>
+        <v>56039</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01908951419583893</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01296872713366191</v>
+        <v>0.01354219056696278</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02629211524187403</v>
+        <v>0.02713318079731636</v>
       </c>
     </row>
     <row r="8">
@@ -3666,19 +3666,19 @@
         <v>1018586</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1013364</v>
+        <v>1012983</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1021513</v>
+        <v>1021519</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9962394040217258</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9911319172966429</v>
+        <v>0.9907596691186704</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9991019959823663</v>
+        <v>0.9991078580665667</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>947</v>
@@ -3687,19 +3687,19 @@
         <v>1007332</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>991218</v>
+        <v>992813</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1018094</v>
+        <v>1018711</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9658826157644879</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9504320894519621</v>
+        <v>0.9519614963029777</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9762021618446657</v>
+        <v>0.9767938898287801</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1894</v>
@@ -3708,19 +3708,19 @@
         <v>2025918</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2011042</v>
+        <v>2009305</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2038559</v>
+        <v>2037375</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9809104858041611</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9737078847581258</v>
+        <v>0.9728668192026834</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9870312728663381</v>
+        <v>0.9864578094330371</v>
       </c>
     </row>
     <row r="9">
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7649</v>
+        <v>8388</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002947031797534921</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01007022595071144</v>
+        <v>0.01104352531843051</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -3833,19 +3833,19 @@
         <v>30851</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20217</v>
+        <v>20470</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42848</v>
+        <v>44064</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03930000032869109</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02575431192978361</v>
+        <v>0.02607646790863807</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05458262257983359</v>
+        <v>0.05613145692482673</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -3854,19 +3854,19 @@
         <v>33089</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22695</v>
+        <v>23181</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47597</v>
+        <v>47138</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02142311431679594</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01469323252832247</v>
+        <v>0.01500809594146492</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03081580157392932</v>
+        <v>0.03051839154172743</v>
       </c>
     </row>
     <row r="11">
@@ -3883,7 +3883,7 @@
         <v>757314</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>751903</v>
+        <v>751164</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>759552</v>
@@ -3892,7 +3892,7 @@
         <v>0.997052968202465</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9899297740492883</v>
+        <v>0.9889564746815697</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3904,19 +3904,19 @@
         <v>754160</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>742163</v>
+        <v>740947</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>764794</v>
+        <v>764541</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9606999996713089</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9454173774201668</v>
+        <v>0.9438685430751731</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9742456880702166</v>
+        <v>0.973923532091362</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1403</v>
@@ -3925,19 +3925,19 @@
         <v>1511474</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1496966</v>
+        <v>1497425</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1521868</v>
+        <v>1521382</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9785768856832041</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9691841984260706</v>
+        <v>0.9694816084582726</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9853067674716776</v>
+        <v>0.9849919040585351</v>
       </c>
     </row>
     <row r="12">
@@ -4029,19 +4029,19 @@
         <v>3787</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1116</v>
+        <v>1003</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10326</v>
+        <v>8585</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004039515516721079</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001190706145716272</v>
+        <v>0.001070068342792785</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01101395234105657</v>
+        <v>0.009157001203722951</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -4050,19 +4050,19 @@
         <v>28938</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18951</v>
+        <v>18059</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42229</v>
+        <v>41014</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02772453228285683</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01815651575557293</v>
+        <v>0.01730193034806584</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04045791365597314</v>
+        <v>0.03929357834332451</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -4071,19 +4071,19 @@
         <v>32726</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22198</v>
+        <v>21618</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45907</v>
+        <v>46377</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01651685328007428</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01120359275369166</v>
+        <v>0.01091091683239007</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02316982500747614</v>
+        <v>0.02340703214713017</v>
       </c>
     </row>
     <row r="14">
@@ -4100,19 +4100,19 @@
         <v>933780</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>927241</v>
+        <v>928982</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>936451</v>
+        <v>936564</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9959604844832789</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9889860476589434</v>
+        <v>0.990842998796277</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9988092938542837</v>
+        <v>0.9989299316572072</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>934</v>
@@ -4121,19 +4121,19 @@
         <v>1014841</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1001550</v>
+        <v>1002765</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1024828</v>
+        <v>1025720</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9722754677171431</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9595420863440268</v>
+        <v>0.9607064216566763</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9818434842444272</v>
+        <v>0.9826980696519342</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1862</v>
@@ -4142,19 +4142,19 @@
         <v>1948620</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1935439</v>
+        <v>1934969</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1959148</v>
+        <v>1959728</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9834831467199258</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9768301749925238</v>
+        <v>0.9765929678528698</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9887964072463082</v>
+        <v>0.9890890831676099</v>
       </c>
     </row>
     <row r="15">
@@ -4246,19 +4246,19 @@
         <v>11772</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6354</v>
+        <v>6235</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20127</v>
+        <v>21454</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00346810221009992</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001872001500148256</v>
+        <v>0.001836844618927144</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.00592957333690008</v>
+        <v>0.006320363296015131</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>106</v>
@@ -4267,19 +4267,19 @@
         <v>122163</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>101654</v>
+        <v>102000</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>145094</v>
+        <v>148725</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03446511985398436</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02867905668324969</v>
+        <v>0.02877663781306042</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04093456380757648</v>
+        <v>0.04195886792158163</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>118</v>
@@ -4288,19 +4288,19 @@
         <v>133935</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>109891</v>
+        <v>112935</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>158719</v>
+        <v>159171</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01930207476147901</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01583692324514779</v>
+        <v>0.01627558797859439</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02287381985863342</v>
+        <v>0.0229389285757035</v>
       </c>
     </row>
     <row r="17">
@@ -4317,19 +4317,19 @@
         <v>3382578</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3374223</v>
+        <v>3372896</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3387996</v>
+        <v>3388115</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9965318977899</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9940704266630997</v>
+        <v>0.993679636703985</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9981279984998517</v>
+        <v>0.9981631553810729</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3232</v>
@@ -4338,19 +4338,19 @@
         <v>3422379</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3399448</v>
+        <v>3395817</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3442888</v>
+        <v>3442542</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9655348801460156</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9590654361924235</v>
+        <v>0.9580411320784191</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9713209433167502</v>
+        <v>0.9712233621869397</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6451</v>
@@ -4359,19 +4359,19 @@
         <v>6804957</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6780173</v>
+        <v>6779721</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6829001</v>
+        <v>6825957</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.980697925238521</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9771261801413664</v>
+        <v>0.9770610714242964</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9841630767548518</v>
+        <v>0.9837244120214055</v>
       </c>
     </row>
     <row r="18">
@@ -4703,19 +4703,19 @@
         <v>7062</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3686</v>
+        <v>3495</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12300</v>
+        <v>12558</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01022392577680378</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005337206655199501</v>
+        <v>0.005060256326152434</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01780812537695346</v>
+        <v>0.01818065048835152</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>90</v>
@@ -4724,19 +4724,19 @@
         <v>40211</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31760</v>
+        <v>32193</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51877</v>
+        <v>52433</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05492533866118395</v>
+        <v>0.05492533866118394</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04338231698180044</v>
+        <v>0.04397350552670437</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07086012044690196</v>
+        <v>0.07161914355340669</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>101</v>
@@ -4745,19 +4745,19 @@
         <v>47273</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38170</v>
+        <v>38208</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60329</v>
+        <v>60468</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03322492770312498</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02682741331476159</v>
+        <v>0.02685397574018497</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04240127418686133</v>
+        <v>0.04249869715846308</v>
       </c>
     </row>
     <row r="5">
@@ -4774,19 +4774,19 @@
         <v>683648</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>678410</v>
+        <v>678152</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>687024</v>
+        <v>687215</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9897760742231962</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9821918746230461</v>
+        <v>0.9818193495116488</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9946627933448006</v>
+        <v>0.9949397436738477</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1147</v>
@@ -4795,19 +4795,19 @@
         <v>691896</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>680230</v>
+        <v>679674</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>700347</v>
+        <v>699914</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9450746613388161</v>
+        <v>0.945074661338816</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9291398795530981</v>
+        <v>0.9283808564465936</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9566176830181993</v>
+        <v>0.9560264944732957</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1866</v>
@@ -4816,19 +4816,19 @@
         <v>1375543</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1362487</v>
+        <v>1362348</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1384646</v>
+        <v>1384608</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.966775072296875</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9575987258131384</v>
+        <v>0.9575013028415371</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9731725866852383</v>
+        <v>0.9731460242598152</v>
       </c>
     </row>
     <row r="6">
@@ -4920,19 +4920,19 @@
         <v>8590</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4266</v>
+        <v>4409</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15686</v>
+        <v>14994</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.008200244966054005</v>
+        <v>0.008200244966054003</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004072028890610951</v>
+        <v>0.004208943507090094</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01497418279049146</v>
+        <v>0.01431361864489374</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -4941,19 +4941,19 @@
         <v>45175</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35796</v>
+        <v>35692</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56361</v>
+        <v>56604</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04240895544644958</v>
+        <v>0.04240895544644959</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03360409158825429</v>
+        <v>0.03350719145312298</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05291051586052597</v>
+        <v>0.05313809218862307</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>93</v>
@@ -4962,19 +4962,19 @@
         <v>53765</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43440</v>
+        <v>42744</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65719</v>
+        <v>64960</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02544789191652505</v>
+        <v>0.02544789191652506</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.020561131663868</v>
+        <v>0.02023151982460139</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03110594158017792</v>
+        <v>0.03074692340181364</v>
       </c>
     </row>
     <row r="8">
@@ -4991,19 +4991,19 @@
         <v>1038929</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1031833</v>
+        <v>1032525</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1043253</v>
+        <v>1043110</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.991799755033946</v>
+        <v>0.9917997550339459</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9850258172095087</v>
+        <v>0.9856863813551061</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9959279711093891</v>
+        <v>0.9957910564929099</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1426</v>
@@ -5012,19 +5012,19 @@
         <v>1020043</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1008857</v>
+        <v>1008614</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1029422</v>
+        <v>1029526</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9575910445535503</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9470894841394738</v>
+        <v>0.9468619078113768</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9663959084117453</v>
+        <v>0.9664928085468769</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2378</v>
@@ -5033,19 +5033,19 @@
         <v>2058972</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2047018</v>
+        <v>2047777</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2069297</v>
+        <v>2069993</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9745521080834749</v>
+        <v>0.9745521080834751</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9688940584198221</v>
+        <v>0.9692530765981862</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.979438868336132</v>
+        <v>0.9797684801753984</v>
       </c>
     </row>
     <row r="9">
@@ -5137,19 +5137,19 @@
         <v>4806</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1804</v>
+        <v>1767</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10763</v>
+        <v>10657</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006014011228474764</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002256765596187624</v>
+        <v>0.002211456798814368</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01346683201887662</v>
+        <v>0.01333473893565569</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -5158,19 +5158,19 @@
         <v>36240</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27061</v>
+        <v>27942</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46065</v>
+        <v>47632</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04488012574927528</v>
+        <v>0.0448801257492753</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03351321159268507</v>
+        <v>0.03460365552365651</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05704861284021496</v>
+        <v>0.05898883913774047</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -5179,19 +5179,19 @@
         <v>41046</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31954</v>
+        <v>31881</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52702</v>
+        <v>53457</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0255470209580174</v>
+        <v>0.02554702095801739</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01988836464523263</v>
+        <v>0.01984234711879027</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0328018351553068</v>
+        <v>0.03327174525566585</v>
       </c>
     </row>
     <row r="11">
@@ -5208,19 +5208,19 @@
         <v>794408</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>788451</v>
+        <v>788557</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>797410</v>
+        <v>797447</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9939859887715251</v>
+        <v>0.9939859887715252</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9865331679811238</v>
+        <v>0.9866652610643445</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9977432344038123</v>
+        <v>0.9977885432011859</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>983</v>
@@ -5229,19 +5229,19 @@
         <v>771238</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>761413</v>
+        <v>759846</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>780417</v>
+        <v>779536</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9551198742507246</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.942951387159785</v>
+        <v>0.9410111608622596</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9664867884073149</v>
+        <v>0.9653963444763434</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1650</v>
@@ -5250,19 +5250,19 @@
         <v>1565646</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1553990</v>
+        <v>1553235</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1574738</v>
+        <v>1574811</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9744529790419826</v>
+        <v>0.9744529790419825</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9671981648446933</v>
+        <v>0.9667282547443344</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9801116353547673</v>
+        <v>0.9801576528812098</v>
       </c>
     </row>
     <row r="12">
@@ -5354,19 +5354,19 @@
         <v>9049</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3498</v>
+        <v>3969</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22818</v>
+        <v>23792</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009160303352972856</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003541415486842172</v>
+        <v>0.004017619516350749</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02309891502746632</v>
+        <v>0.02408474172060067</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>92</v>
@@ -5375,19 +5375,19 @@
         <v>55148</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44537</v>
+        <v>44511</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66514</v>
+        <v>67677</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04945973339220944</v>
+        <v>0.04945973339220945</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03994370451194603</v>
+        <v>0.03992018524610318</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05965360363182169</v>
+        <v>0.06069702229146864</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>100</v>
@@ -5396,19 +5396,19 @@
         <v>64197</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>52249</v>
+        <v>52670</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>79404</v>
+        <v>81308</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03052834090134561</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02484664549645113</v>
+        <v>0.02504705695560361</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03775993388607225</v>
+        <v>0.03866537682985004</v>
       </c>
     </row>
     <row r="14">
@@ -5425,19 +5425,19 @@
         <v>978808</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>965039</v>
+        <v>964065</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>984359</v>
+        <v>983888</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9908396966470273</v>
+        <v>0.9908396966470271</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9769010849725346</v>
+        <v>0.9759152582793995</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9964585845131578</v>
+        <v>0.9959823804836492</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1464</v>
@@ -5446,19 +5446,19 @@
         <v>1059855</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1048489</v>
+        <v>1047326</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1070466</v>
+        <v>1070492</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9505402666077907</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9403463963681786</v>
+        <v>0.9393029777085312</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9600562954880545</v>
+        <v>0.9600798147538968</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2459</v>
@@ -5467,19 +5467,19 @@
         <v>2038663</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2023456</v>
+        <v>2021552</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2050611</v>
+        <v>2050190</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9694716590986543</v>
+        <v>0.9694716590986544</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9622400661139273</v>
+        <v>0.9613346231701496</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9751533545035488</v>
+        <v>0.9749529430443962</v>
       </c>
     </row>
     <row r="15">
@@ -5571,19 +5571,19 @@
         <v>29507</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19500</v>
+        <v>19710</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44772</v>
+        <v>44341</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008370133203932506</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005531526574221012</v>
+        <v>0.005591106479811779</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01270021616072682</v>
+        <v>0.01257790876100922</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>321</v>
@@ -5592,19 +5592,19 @@
         <v>176773</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>156312</v>
+        <v>159437</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>198111</v>
+        <v>197877</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04752222791806551</v>
+        <v>0.0475222279180655</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04202142501714563</v>
+        <v>0.04286162273564929</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05325849157586324</v>
+        <v>0.0531955348669183</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>356</v>
@@ -5613,19 +5613,19 @@
         <v>206281</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>184936</v>
+        <v>185592</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>229583</v>
+        <v>231184</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02847173125594331</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02552569029212231</v>
+        <v>0.02561622892697763</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03168795332212235</v>
+        <v>0.03190895019707982</v>
       </c>
     </row>
     <row r="17">
@@ -5642,19 +5642,19 @@
         <v>3495792</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3480527</v>
+        <v>3480958</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3505799</v>
+        <v>3505589</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9916298667960676</v>
+        <v>0.9916298667960677</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9872997838392733</v>
+        <v>0.9874220912389909</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.994468473425779</v>
+        <v>0.9944088935201884</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5020</v>
@@ -5663,19 +5663,19 @@
         <v>3543033</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3521695</v>
+        <v>3521929</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3563494</v>
+        <v>3560369</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9524777720819345</v>
+        <v>0.9524777720819344</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9467415084241364</v>
+        <v>0.9468044651330817</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9579785749828541</v>
+        <v>0.9571383772643507</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8353</v>
@@ -5684,19 +5684,19 @@
         <v>7038824</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7015522</v>
+        <v>7013921</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7060169</v>
+        <v>7059513</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9715282687440565</v>
+        <v>0.9715282687440567</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9683120466778776</v>
+        <v>0.9680910498029205</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9744743097078776</v>
+        <v>0.9743837710730224</v>
       </c>
     </row>
     <row r="18">
